--- a/Danieli_Arconic_OpenPoints_2024_12_11_AGU1.xlsx
+++ b/Danieli_Arconic_OpenPoints_2024_12_11_AGU1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Danielli\analyze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAA96F0-769E-4ABF-9BB0-FE4DAB9CC3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886A92EF-D6B6-48F2-9C47-08ED414016D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1260" windowWidth="29040" windowHeight="15990" tabRatio="813" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="813" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input Documents" sheetId="28" r:id="rId1"/>
@@ -233,12 +233,6 @@
     <t>Wrong indication in previous drawings, In my opinion should be AI +-10V, what is doing MARAS =PM.A0… is not clear.</t>
   </si>
   <si>
-    <t>I think that this is AI and not as for my preliminary ET200 i/o, we need investigate if it can be eliminate, I’ve not considered at the moment,</t>
-  </si>
-  <si>
-    <t>This can be eliminate? In my opinion is AI and can be eliminate the logical will be managed directly to PLC and by profinet to Drive.</t>
-  </si>
-  <si>
     <t>ET200 DRA01 p.97 AO1 A103 - Pan.D p.12 and p.10 (RL54) - Is it Auto Setpoint?</t>
   </si>
   <si>
@@ -258,9 +252,6 @@
   </si>
   <si>
     <t xml:space="preserve">Panel D, p.2 - not clear difference between Emergency Stop Relay and Delayed </t>
-  </si>
-  <si>
-    <t>Emergency Stop - logic is not clear. The emergency will be only read by DI, the emergency to switchboard drives will be managed as below.</t>
   </si>
   <si>
     <t>ET200 DRM04, p.31 – DO1 A102 relays K2 and K2A. Do they substitute logic for Panel F, p.7 ? Also the logic for Relay RL25 Panel F, p.1 and for relay RL20 Panel F, p.7 – is unclear. Do we have Earth Fault control in our system?</t>
@@ -351,6 +342,15 @@
   </si>
   <si>
     <t>The same signal ike in Panel F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I think that this is AI and not as for my preliminary ET200 i/o, we need investigate if it can be eliminate, I’ve not considered at the moment, We don't need extra AI, because one setpoint goes from Mill Control another from Local Pulpit (may be we need to use HMI?) </t>
+  </si>
+  <si>
+    <t>This can be eliminate? In my opinion is AI and can be eliminate the logical will be managed directly to PLC and by profinet to Drive. The speedsetpoint also isn't clear for 275.</t>
+  </si>
+  <si>
+    <t>Emergency Stop - logic is not clear. The emergency will be only read by DI, the emergency to switchboard drives will be managed as below. The feedback to PLC isn't found.</t>
   </si>
 </sst>
 </file>
@@ -2862,8 +2862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3019,7 +3019,7 @@
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
       <c r="F6" s="33" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
@@ -3221,10 +3221,10 @@
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
       <c r="F15" s="33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="H15" s="16"/>
       <c r="I15" s="37" t="s">
@@ -3245,10 +3245,10 @@
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
       <c r="F16" s="38" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="H16" s="16"/>
       <c r="I16" s="37" t="s">
@@ -3269,10 +3269,10 @@
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
       <c r="F17" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H17" s="16"/>
       <c r="I17" s="37" t="s">
@@ -3293,10 +3293,10 @@
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H18" s="16"/>
       <c r="I18" s="37" t="s">
@@ -3317,10 +3317,10 @@
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
       <c r="F19" s="33" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="H19" s="16"/>
       <c r="I19" s="37" t="s">
@@ -3341,10 +3341,10 @@
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
       <c r="F20" s="38" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H20" s="16"/>
       <c r="I20" s="37" t="s">
@@ -3418,11 +3418,11 @@
         <v>51</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H23" s="16"/>
       <c r="I23" s="42" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J23" s="32"/>
       <c r="K23" s="27"/>
@@ -3444,7 +3444,7 @@
         <v>52</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H24" s="16"/>
       <c r="I24" s="34" t="s">
@@ -3470,7 +3470,7 @@
         <v>53</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H25" s="16"/>
       <c r="I25" s="34" t="s">
@@ -3520,11 +3520,11 @@
         <v>55</v>
       </c>
       <c r="G27" s="27" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H27" s="16"/>
       <c r="I27" s="42" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J27" s="32"/>
       <c r="K27" s="27"/>
@@ -3594,11 +3594,11 @@
         <v>58</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H30" s="16"/>
       <c r="I30" s="42" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J30" s="32"/>
       <c r="K30" s="26"/>
@@ -3644,11 +3644,11 @@
         <v>60</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H32" s="16"/>
       <c r="I32" s="42" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J32" s="32"/>
       <c r="K32" s="26"/>
@@ -3664,13 +3664,13 @@
       <c r="C33" s="21"/>
       <c r="D33" s="16"/>
       <c r="E33" s="21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F33" s="33" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H33" s="16"/>
       <c r="I33" s="34" t="s">
@@ -3685,15 +3685,15 @@
         <v>33</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C34" s="21"/>
       <c r="D34" s="26"/>
       <c r="E34" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F34" s="40" t="s">
         <v>78</v>
-      </c>
-      <c r="F34" s="40" t="s">
-        <v>81</v>
       </c>
       <c r="G34" s="35"/>
       <c r="H34" s="16"/>
@@ -3710,15 +3710,15 @@
         <v>34</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C35" s="21"/>
       <c r="D35" s="16"/>
       <c r="E35" s="21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F35" s="33" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G35" s="16"/>
       <c r="H35" s="26"/>
@@ -3734,15 +3734,15 @@
         <v>35</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C36" s="21"/>
       <c r="D36" s="16"/>
       <c r="E36" s="21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F36" s="33" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G36" s="16"/>
       <c r="H36" s="26"/>
@@ -3758,15 +3758,15 @@
         <v>36</v>
       </c>
       <c r="B37" s="39" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C37" s="21"/>
       <c r="D37" s="16"/>
       <c r="E37" s="21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G37" s="16"/>
       <c r="H37" s="26"/>
@@ -3782,15 +3782,15 @@
         <v>37</v>
       </c>
       <c r="B38" s="39" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C38" s="21"/>
       <c r="D38" s="16"/>
       <c r="E38" s="21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F38" s="33" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G38" s="16"/>
       <c r="H38" s="26"/>
@@ -3806,15 +3806,15 @@
         <v>38</v>
       </c>
       <c r="B39" s="39" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C39" s="21"/>
       <c r="D39" s="21"/>
       <c r="E39" s="21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G39" s="16"/>
       <c r="H39" s="26"/>
@@ -3830,15 +3830,15 @@
         <v>39</v>
       </c>
       <c r="B40" s="39" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C40" s="21"/>
       <c r="D40" s="21"/>
       <c r="E40" s="21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G40" s="16"/>
       <c r="H40" s="16"/>
@@ -3854,15 +3854,15 @@
         <v>40</v>
       </c>
       <c r="B41" s="39" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C41" s="21"/>
       <c r="D41" s="16"/>
       <c r="E41" s="21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G41" s="16"/>
       <c r="H41" s="26"/>
@@ -3878,15 +3878,15 @@
         <v>41</v>
       </c>
       <c r="B42" s="39" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C42" s="21"/>
       <c r="D42" s="23"/>
       <c r="E42" s="21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G42" s="16"/>
       <c r="H42" s="26"/>
@@ -3902,15 +3902,15 @@
         <v>42</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C43" s="21"/>
       <c r="D43" s="16"/>
       <c r="E43" s="21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F43" s="33" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G43" s="16"/>
       <c r="H43" s="26"/>
@@ -3926,15 +3926,15 @@
         <v>43</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C44" s="21"/>
       <c r="D44" s="26"/>
       <c r="E44" s="21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F44" s="33" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G44" s="16"/>
       <c r="H44" s="26"/>
@@ -3950,15 +3950,15 @@
         <v>44</v>
       </c>
       <c r="B45" s="39" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C45" s="21"/>
       <c r="D45" s="26"/>
       <c r="E45" s="21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F45" s="33" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G45" s="16"/>
       <c r="H45" s="26"/>
@@ -3974,18 +3974,18 @@
         <v>45</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C46" s="21"/>
       <c r="D46" s="26"/>
       <c r="E46" s="21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H46" s="26"/>
       <c r="I46" s="34" t="s">
@@ -4000,22 +4000,22 @@
         <v>46</v>
       </c>
       <c r="B47" s="39" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C47" s="21"/>
       <c r="D47" s="26"/>
       <c r="E47" s="21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F47" s="33" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H47" s="16"/>
       <c r="I47" s="42" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J47" s="26"/>
       <c r="K47" s="26"/>
@@ -4026,15 +4026,15 @@
         <v>47</v>
       </c>
       <c r="B48" s="39" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C48" s="21"/>
       <c r="D48" s="26"/>
       <c r="E48" s="21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F48" s="33" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G48" s="16"/>
       <c r="H48" s="16"/>
@@ -5355,6 +5355,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100C3A7C834071CDC4C9A7A81454DB3F56F" ma:contentTypeVersion="21" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="6b16fa23c01c50097f7e82b00bdf2b01">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="117b3442-dc23-405d-8b22-2d3074be0050" xmlns:ns3="644d7f62-6f05-4df0-88ab-b44c87ab6b12" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="256b3b04c3248852adfaadfcc95a5649" ns2:_="" ns3:_="">
     <xsd:import namespace="117b3442-dc23-405d-8b22-2d3074be0050"/>
@@ -5627,15 +5636,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -5653,6 +5653,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8C34F7F-7C75-4F7C-A611-25126E70CEB4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4883519-EC4D-49E6-B478-AFC9CAAF351D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5667,14 +5675,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8C34F7F-7C75-4F7C-A611-25126E70CEB4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
